--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_EditProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E225CDC5-6F27-43DC-A4C8-D11F7FC89EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75652AB3-DCA2-4540-AF43-D4110B39FEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Keyword</t>
   </si>
@@ -106,7 +106,7 @@
     <t>link_grantControlProfile_wait</t>
   </si>
   <si>
-    <t xml:space="preserve"> AA000S - STP-AC </t>
+    <t>AA000S</t>
   </si>
 </sst>
 </file>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,37 +628,37 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -669,8 +669,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -684,13 +684,28 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -703,7 +718,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_EditProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75652AB3-DCA2-4540-AF43-D4110B39FEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE97977-5240-4499-AF7F-12DBFA0CFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <t>link_grantControlProfile_wait</t>
   </si>
   <si>
-    <t>AA000S</t>
+    <t>AA0005</t>
   </si>
 </sst>
 </file>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412ACCA4-AF66-41F7-8F90-D67269E0C8B2}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
